--- a/001. 문서/AR_MASTER 프로젝트 계획서_2017.01.31.003.xlsx
+++ b/001. 문서/AR_MASTER 프로젝트 계획서_2017.01.31.003.xlsx
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1100,7 +1100,7 @@
         <v>42785</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:8" ht="105.4" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="1"/>
       <c r="B23" s="6" t="s">
         <v>35</v>
